--- a/z_event_dates.xlsx
+++ b/z_event_dates.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d6276fef1f00427a/Rstudio/fourth_report/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christian\OneDrive\Rstudio\fifth_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="430" documentId="14_{78048E4B-6F03-4AE0-98FD-38AFA09ECB73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1A941A16-0034-42F6-8196-81F035E0823F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49ECB96D-988D-4D9D-B7F1-B943DA4CF1D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-2865" windowWidth="29040" windowHeight="16440" xr2:uid="{893366F1-D32B-49D6-8B12-671400FE6ECA}"/>
   </bookViews>
@@ -1002,7 +1002,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2517" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2525" uniqueCount="439">
   <si>
     <t>DaTan Combined Cycle Power Plant Expansion Project</t>
   </si>
@@ -2301,6 +2301,24 @@
   </si>
   <si>
     <t>country_col</t>
+  </si>
+  <si>
+    <t>nickname</t>
+  </si>
+  <si>
+    <t>Mitsubishi</t>
+  </si>
+  <si>
+    <t>Samsung</t>
+  </si>
+  <si>
+    <t>Ansaldo</t>
+  </si>
+  <si>
+    <t>Vpower</t>
+  </si>
+  <si>
+    <t>http://news.samsungcnt.com/samsung-ct-wins-fujairah-f3-combined-cycle-power-plant-contract-in-uae/</t>
   </si>
 </sst>
 </file>
@@ -2495,13 +2513,8 @@
   <types>
     <type name="_imageurl">
       <keyFlags>
-        <key name="Attribution Size">
-          <flag name="ShowInAutoComplete" value="0"/>
-        </key>
         <key name="Blip Identifier">
           <flag name="ShowInCardView" value="0"/>
-          <flag name="ShowInDotNotation" value="0"/>
-          <flag name="ShowInAutoComplete" value="0"/>
         </key>
       </keyFlags>
     </type>
@@ -21053,7 +21066,7 @@
   <dimension ref="A1:P114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J46" sqref="J46"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21273,8 +21286,8 @@
       <c r="M6">
         <v>2400</v>
       </c>
-      <c r="N6" t="s">
-        <v>195</v>
+      <c r="N6" s="1" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -34603,12 +34616,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC399011-9FC3-4F38-B034-FD814D1491D2}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34617,9 +34630,10 @@
     <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>183</v>
       </c>
@@ -34638,8 +34652,11 @@
       <c r="F1" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>176</v>
       </c>
@@ -34658,8 +34675,11 @@
       <c r="F2" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>178</v>
       </c>
@@ -34678,8 +34698,11 @@
       <c r="F3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>186</v>
       </c>
@@ -34698,8 +34721,11 @@
       <c r="F4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>179</v>
       </c>
@@ -34718,8 +34744,11 @@
       <c r="F5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>175</v>
       </c>
@@ -34738,8 +34767,11 @@
       <c r="F6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -34758,8 +34790,11 @@
       <c r="F7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>177</v>
       </c>
@@ -34777,6 +34812,9 @@
       </c>
       <c r="F8" t="s">
         <v>18</v>
+      </c>
+      <c r="G8" t="s">
+        <v>436</v>
       </c>
     </row>
   </sheetData>

--- a/z_event_dates.xlsx
+++ b/z_event_dates.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christian\OneDrive\Rstudio\fifth_report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christian\OneDrive\Rstudio\presentation_thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49ECB96D-988D-4D9D-B7F1-B943DA4CF1D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7163179F-32CB-4032-9713-341F4119AE30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-2865" windowWidth="29040" windowHeight="16440" xr2:uid="{893366F1-D32B-49D6-8B12-671400FE6ECA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{893366F1-D32B-49D6-8B12-671400FE6ECA}"/>
   </bookViews>
   <sheets>
     <sheet name="1 Tenders" sheetId="21" r:id="rId1"/>
@@ -1002,7 +1002,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2525" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2508" uniqueCount="439">
   <si>
     <t>DaTan Combined Cycle Power Plant Expansion Project</t>
   </si>
@@ -2354,12 +2354,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -2375,7 +2381,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2393,6 +2399,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -2400,74 +2410,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -20771,10 +20713,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="FFFFFF"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="000000"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -21063,20 +21005,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D4A1296-6361-4052-8771-A1D2A7BC0CEF}">
-  <dimension ref="A1:P114"/>
+  <dimension ref="A1:P112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.42578125" style="4"/>
+    <col min="2" max="2" width="11.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.85546875" customWidth="1"/>
-    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="191.42578125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="51.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -21223,35 +21167,35 @@
         <v>195</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="B5" s="4">
-        <v>43881</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" s="14">
+        <v>43850</v>
+      </c>
+      <c r="C5" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="F5" t="e" vm="4">
+      <c r="F5" s="13" t="e" vm="4">
         <v>#VALUE!</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="13">
         <v>8230000000</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="13">
         <v>800</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="13">
         <v>800</v>
       </c>
-      <c r="N5" t="s">
+      <c r="N5" s="13" t="s">
         <v>198</v>
       </c>
     </row>
@@ -22405,81 +22349,78 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B37" s="4">
-        <v>43641</v>
+        <v>43614</v>
       </c>
       <c r="C37" t="s">
-        <v>4</v>
+        <v>111</v>
       </c>
       <c r="D37" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E37" t="s">
-        <v>5</v>
-      </c>
-      <c r="F37" t="e" vm="10">
+        <v>112</v>
+      </c>
+      <c r="F37" t="e" vm="18">
         <v>#VALUE!</v>
       </c>
       <c r="G37" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="H37">
-        <v>12000000000</v>
-      </c>
-      <c r="I37" t="s">
-        <v>6</v>
-      </c>
-      <c r="J37" t="s">
-        <v>11</v>
-      </c>
-      <c r="K37">
-        <v>179.5</v>
-      </c>
-      <c r="M37" t="s">
-        <v>11</v>
+        <v>72000000000</v>
+      </c>
+      <c r="J37">
+        <v>57</v>
+      </c>
+      <c r="M37">
+        <v>57</v>
       </c>
       <c r="N37" t="s">
-        <v>31</v>
-      </c>
-      <c r="O37" t="s">
-        <v>173</v>
+        <v>113</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>175</v>
+        <v>21</v>
       </c>
       <c r="B38" s="4">
-        <v>43614</v>
+        <v>43605</v>
       </c>
       <c r="C38" t="s">
-        <v>111</v>
+        <v>365</v>
       </c>
       <c r="D38" t="s">
         <v>45</v>
       </c>
       <c r="E38" t="s">
-        <v>112</v>
-      </c>
-      <c r="F38" t="e" vm="18">
+        <v>366</v>
+      </c>
+      <c r="F38" t="e" vm="8">
         <v>#VALUE!</v>
       </c>
       <c r="G38" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="H38">
-        <v>72000000000</v>
+        <v>63000000000</v>
+      </c>
+      <c r="I38" t="s">
+        <v>21</v>
       </c>
       <c r="J38">
-        <v>57</v>
+        <v>1000</v>
+      </c>
+      <c r="L38">
+        <v>1000</v>
       </c>
       <c r="M38">
-        <v>57</v>
+        <v>1000</v>
       </c>
       <c r="N38" t="s">
-        <v>113</v>
+        <v>69</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
@@ -22487,16 +22428,16 @@
         <v>21</v>
       </c>
       <c r="B39" s="4">
-        <v>43605</v>
+        <v>43586</v>
       </c>
       <c r="C39" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="D39" t="s">
         <v>45</v>
       </c>
       <c r="E39" t="s">
-        <v>366</v>
+        <v>68</v>
       </c>
       <c r="F39" t="e" vm="8">
         <v>#VALUE!</v>
@@ -22511,16 +22452,16 @@
         <v>21</v>
       </c>
       <c r="J39">
-        <v>1000</v>
+        <v>620</v>
       </c>
       <c r="L39">
-        <v>1000</v>
+        <v>620</v>
       </c>
       <c r="M39">
-        <v>1000</v>
+        <v>620</v>
       </c>
       <c r="N39" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
@@ -22528,22 +22469,22 @@
         <v>21</v>
       </c>
       <c r="B40" s="4">
-        <v>43586</v>
+        <v>43571</v>
       </c>
       <c r="C40" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="D40" t="s">
         <v>45</v>
       </c>
       <c r="E40" t="s">
-        <v>68</v>
-      </c>
-      <c r="F40" t="e" vm="8">
+        <v>40</v>
+      </c>
+      <c r="F40" t="e" vm="7">
         <v>#VALUE!</v>
       </c>
       <c r="G40" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="H40">
         <v>63000000000</v>
@@ -22552,57 +22493,51 @@
         <v>21</v>
       </c>
       <c r="J40">
-        <v>620</v>
+        <v>630</v>
       </c>
       <c r="L40">
-        <v>620</v>
+        <v>1260</v>
       </c>
       <c r="M40">
-        <v>620</v>
+        <v>1260</v>
       </c>
       <c r="N40" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>21</v>
+        <v>175</v>
       </c>
       <c r="B41" s="4">
-        <v>43571</v>
+        <v>43564</v>
       </c>
       <c r="C41" t="s">
-        <v>354</v>
+        <v>115</v>
       </c>
       <c r="D41" t="s">
         <v>45</v>
       </c>
       <c r="E41" t="s">
-        <v>40</v>
-      </c>
-      <c r="F41" t="e" vm="7">
+        <v>114</v>
+      </c>
+      <c r="F41" t="e" vm="26">
         <v>#VALUE!</v>
       </c>
       <c r="G41" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="H41">
-        <v>63000000000</v>
-      </c>
-      <c r="I41" t="s">
-        <v>21</v>
+        <v>72000000000</v>
       </c>
       <c r="J41">
-        <v>630</v>
-      </c>
-      <c r="L41">
-        <v>1260</v>
+        <v>48</v>
       </c>
       <c r="M41">
-        <v>1260</v>
+        <v>48</v>
       </c>
       <c r="N41" t="s">
-        <v>42</v>
+        <v>174</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
@@ -22610,16 +22545,16 @@
         <v>175</v>
       </c>
       <c r="B42" s="4">
-        <v>43564</v>
+        <v>43558</v>
       </c>
       <c r="C42" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D42" t="s">
         <v>45</v>
       </c>
       <c r="E42" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F42" t="e" vm="26">
         <v>#VALUE!</v>
@@ -22631,91 +22566,97 @@
         <v>72000000000</v>
       </c>
       <c r="J42">
-        <v>48</v>
+        <v>1300</v>
+      </c>
+      <c r="K42">
+        <v>1000</v>
+      </c>
+      <c r="L42">
+        <v>1300</v>
       </c>
       <c r="M42">
-        <v>48</v>
+        <v>1300</v>
       </c>
       <c r="N42" t="s">
-        <v>174</v>
+        <v>118</v>
+      </c>
+      <c r="O42" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B43" s="4">
-        <v>43558</v>
+        <v>43553</v>
       </c>
       <c r="C43" t="s">
-        <v>116</v>
+        <v>240</v>
       </c>
       <c r="D43" t="s">
         <v>45</v>
       </c>
-      <c r="E43" t="s">
-        <v>117</v>
-      </c>
-      <c r="F43" t="e" vm="26">
+      <c r="F43" t="e" vm="3">
         <v>#VALUE!</v>
       </c>
       <c r="G43" t="s">
-        <v>23</v>
-      </c>
-      <c r="H43">
-        <v>72000000000</v>
-      </c>
-      <c r="J43">
-        <v>1300</v>
-      </c>
-      <c r="K43">
-        <v>1000</v>
+        <v>352</v>
       </c>
       <c r="L43">
-        <v>1300</v>
+        <v>1026</v>
       </c>
       <c r="M43">
-        <v>1300</v>
+        <v>1026</v>
       </c>
       <c r="N43" t="s">
-        <v>118</v>
-      </c>
-      <c r="O43" t="s">
-        <v>99</v>
+        <v>241</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="B44" s="4">
-        <v>43553</v>
+        <v>43517</v>
       </c>
       <c r="C44" t="s">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="D44" t="s">
         <v>45</v>
       </c>
-      <c r="F44" t="e" vm="3">
+      <c r="E44" t="s">
+        <v>1</v>
+      </c>
+      <c r="F44" t="e" vm="27">
         <v>#VALUE!</v>
       </c>
       <c r="G44" t="s">
-        <v>352</v>
+        <v>2</v>
+      </c>
+      <c r="H44">
+        <v>8230000000</v>
+      </c>
+      <c r="I44" t="s">
+        <v>21</v>
+      </c>
+      <c r="K44">
+        <v>1200</v>
       </c>
       <c r="L44">
-        <v>1026</v>
+        <v>2000</v>
       </c>
       <c r="M44">
-        <v>1026</v>
+        <v>2000</v>
       </c>
       <c r="N44" t="s">
-        <v>241</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>186</v>
+        <v>21</v>
       </c>
       <c r="B45" s="4">
         <v>43517</v>
@@ -22733,13 +22674,13 @@
         <v>#VALUE!</v>
       </c>
       <c r="G45" t="s">
+        <v>21</v>
+      </c>
+      <c r="H45">
+        <v>63000000000</v>
+      </c>
+      <c r="I45" t="s">
         <v>2</v>
-      </c>
-      <c r="H45">
-        <v>8230000000</v>
-      </c>
-      <c r="I45" t="s">
-        <v>21</v>
       </c>
       <c r="K45">
         <v>1200</v>
@@ -22751,48 +22692,39 @@
         <v>2000</v>
       </c>
       <c r="N45" t="s">
-        <v>3</v>
+        <v>420</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>21</v>
+        <v>186</v>
       </c>
       <c r="B46" s="4">
-        <v>43517</v>
+        <v>43501</v>
       </c>
       <c r="C46" t="s">
-        <v>0</v>
+        <v>199</v>
       </c>
       <c r="D46" t="s">
-        <v>45</v>
-      </c>
-      <c r="E46" t="s">
-        <v>1</v>
-      </c>
-      <c r="F46" t="e" vm="27">
+        <v>197</v>
+      </c>
+      <c r="F46" t="e" vm="28">
         <v>#VALUE!</v>
       </c>
       <c r="G46" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="H46">
-        <v>63000000000</v>
-      </c>
-      <c r="I46" t="s">
-        <v>2</v>
-      </c>
-      <c r="K46">
-        <v>1200</v>
+        <v>8230000000</v>
       </c>
       <c r="L46">
-        <v>2000</v>
+        <v>105</v>
       </c>
       <c r="M46">
-        <v>2000</v>
+        <v>105</v>
       </c>
       <c r="N46" t="s">
-        <v>420</v>
+        <v>200</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
@@ -22800,15 +22732,15 @@
         <v>186</v>
       </c>
       <c r="B47" s="4">
-        <v>43501</v>
+        <v>43441</v>
       </c>
       <c r="C47" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D47" t="s">
-        <v>197</v>
-      </c>
-      <c r="F47" t="e" vm="28">
+        <v>45</v>
+      </c>
+      <c r="F47" t="e" vm="29">
         <v>#VALUE!</v>
       </c>
       <c r="G47" t="s">
@@ -22817,14 +22749,20 @@
       <c r="H47">
         <v>8230000000</v>
       </c>
+      <c r="I47" t="s">
+        <v>368</v>
+      </c>
+      <c r="K47">
+        <v>1400</v>
+      </c>
       <c r="L47">
-        <v>105</v>
+        <v>1760</v>
       </c>
       <c r="M47">
-        <v>105</v>
+        <v>1760</v>
       </c>
       <c r="N47" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
@@ -22832,15 +22770,15 @@
         <v>186</v>
       </c>
       <c r="B48" s="4">
-        <v>43441</v>
+        <v>43343</v>
       </c>
       <c r="C48" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="D48" t="s">
-        <v>45</v>
-      </c>
-      <c r="F48" t="e" vm="29">
+        <v>204</v>
+      </c>
+      <c r="F48" t="e" vm="30">
         <v>#VALUE!</v>
       </c>
       <c r="G48" t="s">
@@ -22850,156 +22788,153 @@
         <v>8230000000</v>
       </c>
       <c r="I48" t="s">
-        <v>368</v>
-      </c>
-      <c r="K48">
-        <v>1400</v>
+        <v>207</v>
       </c>
       <c r="L48">
-        <v>1760</v>
+        <v>83</v>
       </c>
       <c r="M48">
-        <v>1760</v>
+        <v>83</v>
       </c>
       <c r="N48" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="B49" s="4">
-        <v>43343</v>
+        <v>43321</v>
       </c>
       <c r="C49" t="s">
-        <v>206</v>
+        <v>369</v>
       </c>
       <c r="D49" t="s">
-        <v>204</v>
-      </c>
-      <c r="F49" t="e" vm="30">
+        <v>45</v>
+      </c>
+      <c r="F49" t="e" vm="10">
         <v>#VALUE!</v>
       </c>
       <c r="G49" t="s">
+        <v>352</v>
+      </c>
+      <c r="I49" t="s">
         <v>2</v>
       </c>
-      <c r="H49">
-        <v>8230000000</v>
-      </c>
-      <c r="I49" t="s">
-        <v>207</v>
-      </c>
       <c r="L49">
-        <v>83</v>
+        <v>1330</v>
       </c>
       <c r="M49">
-        <v>83</v>
+        <v>1330</v>
       </c>
       <c r="N49" t="s">
-        <v>208</v>
+        <v>249</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B50" s="4">
-        <v>43321</v>
+        <v>43312</v>
       </c>
       <c r="C50" t="s">
-        <v>369</v>
+        <v>119</v>
       </c>
       <c r="D50" t="s">
         <v>45</v>
       </c>
-      <c r="F50" t="e" vm="10">
+      <c r="E50" t="s">
+        <v>120</v>
+      </c>
+      <c r="F50" t="e" vm="18">
         <v>#VALUE!</v>
       </c>
       <c r="G50" t="s">
-        <v>352</v>
-      </c>
-      <c r="I50" t="s">
-        <v>2</v>
+        <v>23</v>
+      </c>
+      <c r="H50">
+        <v>72000000000</v>
+      </c>
+      <c r="J50">
+        <v>600</v>
       </c>
       <c r="L50">
-        <v>1330</v>
+        <v>600</v>
       </c>
       <c r="M50">
-        <v>1330</v>
+        <v>600</v>
       </c>
       <c r="N50" t="s">
-        <v>249</v>
+        <v>121</v>
+      </c>
+      <c r="O50" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="B51" s="4">
-        <v>43312</v>
+        <v>43277</v>
       </c>
       <c r="C51" t="s">
-        <v>119</v>
+        <v>203</v>
       </c>
       <c r="D51" t="s">
-        <v>45</v>
-      </c>
-      <c r="E51" t="s">
-        <v>120</v>
-      </c>
-      <c r="F51" t="e" vm="18">
+        <v>204</v>
+      </c>
+      <c r="F51" t="e" vm="29">
         <v>#VALUE!</v>
       </c>
       <c r="G51" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="H51">
-        <v>72000000000</v>
-      </c>
-      <c r="J51">
-        <v>600</v>
-      </c>
-      <c r="L51">
-        <v>600</v>
+        <v>8230000000</v>
       </c>
       <c r="M51">
-        <v>600</v>
+        <v>98</v>
       </c>
       <c r="N51" t="s">
-        <v>121</v>
-      </c>
-      <c r="O51" t="s">
-        <v>99</v>
+        <v>205</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="B52" s="4">
-        <v>43277</v>
+        <v>43209</v>
       </c>
       <c r="C52" t="s">
-        <v>203</v>
+        <v>122</v>
       </c>
       <c r="D52" t="s">
-        <v>204</v>
-      </c>
-      <c r="F52" t="e" vm="29">
+        <v>45</v>
+      </c>
+      <c r="E52" t="s">
+        <v>123</v>
+      </c>
+      <c r="F52" t="e" vm="22">
         <v>#VALUE!</v>
       </c>
       <c r="G52" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="H52">
-        <v>8230000000</v>
+        <v>72000000000</v>
+      </c>
+      <c r="J52">
+        <v>1340</v>
       </c>
       <c r="M52">
-        <v>98</v>
+        <v>1340</v>
       </c>
       <c r="N52" t="s">
-        <v>205</v>
+        <v>124</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
@@ -23007,18 +22942,18 @@
         <v>175</v>
       </c>
       <c r="B53" s="4">
-        <v>43209</v>
+        <v>43187</v>
       </c>
       <c r="C53" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D53" t="s">
         <v>45</v>
       </c>
       <c r="E53" t="s">
-        <v>123</v>
-      </c>
-      <c r="F53" t="e" vm="22">
+        <v>127</v>
+      </c>
+      <c r="F53" t="e" vm="31">
         <v>#VALUE!</v>
       </c>
       <c r="G53" t="s">
@@ -23028,13 +22963,13 @@
         <v>72000000000</v>
       </c>
       <c r="J53">
-        <v>1340</v>
+        <v>8</v>
       </c>
       <c r="M53">
-        <v>1340</v>
+        <v>8</v>
       </c>
       <c r="N53" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
@@ -23042,18 +22977,18 @@
         <v>175</v>
       </c>
       <c r="B54" s="4">
-        <v>43187</v>
+        <v>43181</v>
       </c>
       <c r="C54" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D54" t="s">
         <v>45</v>
       </c>
       <c r="E54" t="s">
-        <v>127</v>
-      </c>
-      <c r="F54" t="e" vm="31">
+        <v>129</v>
+      </c>
+      <c r="F54" t="e" vm="32">
         <v>#VALUE!</v>
       </c>
       <c r="G54" t="s">
@@ -23063,270 +22998,270 @@
         <v>72000000000</v>
       </c>
       <c r="J54">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="M54">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="N54" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B55" s="4">
-        <v>43181</v>
+        <v>43175</v>
       </c>
       <c r="C55" t="s">
-        <v>128</v>
+        <v>229</v>
       </c>
       <c r="D55" t="s">
         <v>45</v>
       </c>
       <c r="E55" t="s">
-        <v>129</v>
-      </c>
-      <c r="F55" t="e" vm="32">
+        <v>370</v>
+      </c>
+      <c r="F55" t="e" vm="29">
         <v>#VALUE!</v>
       </c>
       <c r="G55" t="s">
-        <v>23</v>
-      </c>
-      <c r="H55">
-        <v>72000000000</v>
-      </c>
-      <c r="J55">
-        <v>32</v>
+        <v>7</v>
+      </c>
+      <c r="I55" t="s">
+        <v>371</v>
+      </c>
+      <c r="K55">
+        <v>1000</v>
+      </c>
+      <c r="L55">
+        <v>1760</v>
       </c>
       <c r="M55">
-        <v>32</v>
+        <v>1760</v>
       </c>
       <c r="N55" t="s">
-        <v>130</v>
+        <v>230</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B56" s="4">
-        <v>43175</v>
+        <v>43174</v>
       </c>
       <c r="C56" t="s">
-        <v>229</v>
+        <v>167</v>
       </c>
       <c r="D56" t="s">
         <v>45</v>
       </c>
       <c r="E56" t="s">
-        <v>370</v>
-      </c>
-      <c r="F56" t="e" vm="29">
+        <v>168</v>
+      </c>
+      <c r="F56" t="e" vm="33">
         <v>#VALUE!</v>
       </c>
       <c r="G56" t="s">
-        <v>7</v>
-      </c>
-      <c r="I56" t="s">
-        <v>371</v>
+        <v>18</v>
+      </c>
+      <c r="H56">
+        <v>9000000000</v>
+      </c>
+      <c r="J56">
+        <v>200</v>
       </c>
       <c r="K56">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="L56">
-        <v>1760</v>
+        <v>200</v>
       </c>
       <c r="M56">
-        <v>1760</v>
+        <v>200</v>
       </c>
       <c r="N56" t="s">
-        <v>230</v>
+        <v>169</v>
+      </c>
+      <c r="O56" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B57" s="4">
-        <v>43174</v>
+        <v>43166</v>
       </c>
       <c r="C57" t="s">
-        <v>167</v>
+        <v>131</v>
       </c>
       <c r="D57" t="s">
         <v>45</v>
       </c>
       <c r="E57" t="s">
-        <v>168</v>
-      </c>
-      <c r="F57" t="e" vm="33">
+        <v>131</v>
+      </c>
+      <c r="F57" t="e" vm="24">
         <v>#VALUE!</v>
       </c>
       <c r="G57" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H57">
-        <v>9000000000</v>
+        <v>72000000000</v>
       </c>
       <c r="J57">
-        <v>200</v>
-      </c>
-      <c r="K57">
-        <v>40</v>
-      </c>
-      <c r="L57">
-        <v>200</v>
+        <v>75</v>
       </c>
       <c r="M57">
-        <v>200</v>
+        <v>75</v>
       </c>
       <c r="N57" t="s">
-        <v>169</v>
-      </c>
-      <c r="O57" t="s">
-        <v>372</v>
+        <v>132</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B58" s="4">
-        <v>43166</v>
+        <v>43140</v>
       </c>
       <c r="C58" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D58" t="s">
         <v>45</v>
       </c>
       <c r="E58" t="s">
-        <v>131</v>
-      </c>
-      <c r="F58" t="e" vm="24">
+        <v>373</v>
+      </c>
+      <c r="F58" t="e" vm="34">
         <v>#VALUE!</v>
       </c>
       <c r="G58" t="s">
-        <v>23</v>
+        <v>352</v>
       </c>
       <c r="H58">
-        <v>72000000000</v>
-      </c>
-      <c r="J58">
-        <v>75</v>
+        <v>8200000000</v>
+      </c>
+      <c r="L58">
+        <v>5300</v>
       </c>
       <c r="M58">
-        <v>75</v>
+        <v>5300</v>
       </c>
       <c r="N58" t="s">
-        <v>132</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B59" s="4">
-        <v>43140</v>
+        <v>43139</v>
       </c>
       <c r="C59" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D59" t="s">
         <v>45</v>
       </c>
       <c r="E59" t="s">
-        <v>373</v>
-      </c>
-      <c r="F59" t="e" vm="34">
+        <v>133</v>
+      </c>
+      <c r="F59" t="e" vm="13">
         <v>#VALUE!</v>
       </c>
       <c r="G59" t="s">
-        <v>352</v>
+        <v>23</v>
       </c>
       <c r="H59">
-        <v>8200000000</v>
-      </c>
-      <c r="L59">
-        <v>5300</v>
+        <v>72000000000</v>
+      </c>
+      <c r="J59">
+        <v>38</v>
       </c>
       <c r="M59">
-        <v>5300</v>
+        <v>38</v>
       </c>
       <c r="N59" t="s">
-        <v>22</v>
+        <v>136</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="B60" s="4">
-        <v>43139</v>
+        <v>43069</v>
       </c>
       <c r="C60" t="s">
-        <v>134</v>
+        <v>184</v>
       </c>
       <c r="D60" t="s">
-        <v>45</v>
+        <v>185</v>
       </c>
       <c r="E60" t="s">
-        <v>133</v>
-      </c>
-      <c r="F60" t="e" vm="13">
+        <v>374</v>
+      </c>
+      <c r="F60" t="e" vm="34">
         <v>#VALUE!</v>
       </c>
       <c r="G60" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="H60">
-        <v>72000000000</v>
-      </c>
-      <c r="J60">
-        <v>38</v>
+        <v>8230000000</v>
+      </c>
+      <c r="L60">
+        <v>7</v>
       </c>
       <c r="M60">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="N60" t="s">
-        <v>136</v>
+        <v>187</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>186</v>
+        <v>21</v>
       </c>
       <c r="B61" s="4">
-        <v>43069</v>
+        <v>43068</v>
       </c>
       <c r="C61" t="s">
-        <v>184</v>
+        <v>137</v>
       </c>
       <c r="D61" t="s">
-        <v>185</v>
+        <v>45</v>
       </c>
       <c r="E61" t="s">
-        <v>374</v>
-      </c>
-      <c r="F61" t="e" vm="34">
+        <v>138</v>
+      </c>
+      <c r="F61" t="e" vm="16">
         <v>#VALUE!</v>
       </c>
       <c r="G61" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="H61">
-        <v>8230000000</v>
-      </c>
-      <c r="L61">
-        <v>7</v>
+        <v>63000000000</v>
+      </c>
+      <c r="J61">
+        <v>100</v>
       </c>
       <c r="M61">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="N61" t="s">
-        <v>187</v>
+        <v>139</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
@@ -23334,18 +23269,18 @@
         <v>21</v>
       </c>
       <c r="B62" s="4">
-        <v>43068</v>
+        <v>43061</v>
       </c>
       <c r="C62" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D62" t="s">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="E62" t="s">
-        <v>138</v>
-      </c>
-      <c r="F62" t="e" vm="16">
+        <v>141</v>
+      </c>
+      <c r="F62" t="e" vm="19">
         <v>#VALUE!</v>
       </c>
       <c r="G62" t="s">
@@ -23354,14 +23289,11 @@
       <c r="H62">
         <v>63000000000</v>
       </c>
-      <c r="J62">
-        <v>100</v>
-      </c>
-      <c r="M62">
-        <v>100</v>
+      <c r="K62">
+        <v>400</v>
       </c>
       <c r="N62" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
@@ -23369,18 +23301,18 @@
         <v>21</v>
       </c>
       <c r="B63" s="4">
-        <v>43061</v>
+        <v>43040</v>
       </c>
       <c r="C63" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="D63" t="s">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="E63" t="s">
-        <v>141</v>
-      </c>
-      <c r="F63" t="e" vm="19">
+        <v>375</v>
+      </c>
+      <c r="F63" t="e" vm="35">
         <v>#VALUE!</v>
       </c>
       <c r="G63" t="s">
@@ -23389,52 +23321,55 @@
       <c r="H63">
         <v>63000000000</v>
       </c>
-      <c r="K63">
-        <v>400</v>
+      <c r="J63">
+        <v>34</v>
+      </c>
+      <c r="M63">
+        <v>34</v>
       </c>
       <c r="N63" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>175</v>
+        <v>21</v>
       </c>
       <c r="B64" s="4">
-        <v>43044</v>
+        <v>43033</v>
       </c>
       <c r="C64" t="s">
-        <v>26</v>
+        <v>151</v>
       </c>
       <c r="D64" t="s">
         <v>45</v>
       </c>
       <c r="E64" t="s">
-        <v>24</v>
-      </c>
-      <c r="F64" t="e" vm="16">
+        <v>152</v>
+      </c>
+      <c r="F64" t="e" vm="8">
         <v>#VALUE!</v>
       </c>
       <c r="G64" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H64">
-        <v>72000000000</v>
-      </c>
-      <c r="J64" t="s">
-        <v>25</v>
+        <v>63000000000</v>
+      </c>
+      <c r="J64">
+        <v>1050</v>
       </c>
       <c r="K64">
-        <v>2800</v>
+        <v>700</v>
       </c>
       <c r="L64">
-        <v>3600</v>
+        <v>1050</v>
       </c>
       <c r="M64">
-        <v>3600</v>
+        <v>1050</v>
       </c>
       <c r="N64" t="s">
-        <v>27</v>
+        <v>153</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
@@ -23442,18 +23377,18 @@
         <v>21</v>
       </c>
       <c r="B65" s="4">
-        <v>43040</v>
+        <v>43019</v>
       </c>
       <c r="C65" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D65" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E65" t="s">
-        <v>375</v>
-      </c>
-      <c r="F65" t="e" vm="35">
+        <v>148</v>
+      </c>
+      <c r="F65" t="e" vm="36">
         <v>#VALUE!</v>
       </c>
       <c r="G65" t="s">
@@ -23463,54 +23398,48 @@
         <v>63000000000</v>
       </c>
       <c r="J65">
-        <v>34</v>
+        <v>5.6</v>
       </c>
       <c r="M65">
-        <v>34</v>
+        <v>5.6</v>
       </c>
       <c r="N65" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>21</v>
+        <v>186</v>
       </c>
       <c r="B66" s="4">
-        <v>43033</v>
+        <v>43007</v>
       </c>
       <c r="C66" t="s">
-        <v>151</v>
+        <v>376</v>
       </c>
       <c r="D66" t="s">
-        <v>45</v>
+        <v>185</v>
       </c>
       <c r="E66" t="s">
-        <v>152</v>
-      </c>
-      <c r="F66" t="e" vm="8">
+        <v>209</v>
+      </c>
+      <c r="F66" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
       <c r="G66" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="H66">
-        <v>63000000000</v>
-      </c>
-      <c r="J66">
-        <v>1050</v>
-      </c>
-      <c r="K66">
-        <v>700</v>
+        <v>8230000000</v>
       </c>
       <c r="L66">
-        <v>1050</v>
+        <v>300</v>
       </c>
       <c r="M66">
-        <v>1050</v>
+        <v>300</v>
       </c>
       <c r="N66" t="s">
-        <v>153</v>
+        <v>210</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.25">
@@ -23518,18 +23447,18 @@
         <v>21</v>
       </c>
       <c r="B67" s="4">
-        <v>43019</v>
+        <v>42992</v>
       </c>
       <c r="C67" t="s">
-        <v>149</v>
+        <v>377</v>
       </c>
       <c r="D67" t="s">
-        <v>48</v>
+        <v>101</v>
       </c>
       <c r="E67" t="s">
-        <v>148</v>
-      </c>
-      <c r="F67" t="e" vm="36">
+        <v>146</v>
+      </c>
+      <c r="F67" t="e" vm="37">
         <v>#VALUE!</v>
       </c>
       <c r="G67" t="s">
@@ -23538,49 +23467,46 @@
       <c r="H67">
         <v>63000000000</v>
       </c>
-      <c r="J67">
-        <v>5.6</v>
-      </c>
-      <c r="M67">
-        <v>5.6</v>
+      <c r="K67">
+        <v>250</v>
       </c>
       <c r="N67" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>186</v>
+        <v>21</v>
       </c>
       <c r="B68" s="4">
-        <v>43007</v>
+        <v>42991</v>
       </c>
       <c r="C68" t="s">
-        <v>376</v>
+        <v>143</v>
       </c>
       <c r="D68" t="s">
-        <v>185</v>
+        <v>45</v>
       </c>
       <c r="E68" t="s">
-        <v>209</v>
-      </c>
-      <c r="F68" t="e" vm="1">
+        <v>144</v>
+      </c>
+      <c r="F68" t="e" vm="16">
         <v>#VALUE!</v>
       </c>
       <c r="G68" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="H68">
-        <v>8230000000</v>
-      </c>
-      <c r="L68">
-        <v>300</v>
+        <v>63000000000</v>
+      </c>
+      <c r="J68">
+        <v>220</v>
       </c>
       <c r="M68">
-        <v>300</v>
+        <v>220</v>
       </c>
       <c r="N68" t="s">
-        <v>210</v>
+        <v>145</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.25">
@@ -23588,18 +23514,18 @@
         <v>21</v>
       </c>
       <c r="B69" s="4">
-        <v>42992</v>
+        <v>42947</v>
       </c>
       <c r="C69" t="s">
-        <v>377</v>
+        <v>164</v>
       </c>
       <c r="D69" t="s">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="E69" t="s">
-        <v>146</v>
-      </c>
-      <c r="F69" t="e" vm="37">
+        <v>165</v>
+      </c>
+      <c r="F69" t="e" vm="38">
         <v>#VALUE!</v>
       </c>
       <c r="G69" t="s">
@@ -23608,46 +23534,64 @@
       <c r="H69">
         <v>63000000000</v>
       </c>
-      <c r="K69">
+      <c r="J69">
         <v>250</v>
       </c>
+      <c r="M69">
+        <v>250</v>
+      </c>
       <c r="N69" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>21</v>
+        <v>186</v>
       </c>
       <c r="B70" s="4">
-        <v>42991</v>
+        <v>42935</v>
       </c>
       <c r="C70" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="D70" t="s">
         <v>45</v>
       </c>
       <c r="E70" t="s">
-        <v>144</v>
-      </c>
-      <c r="F70" t="e" vm="16">
+        <v>378</v>
+      </c>
+      <c r="F70" t="e" vm="29">
         <v>#VALUE!</v>
       </c>
       <c r="G70" t="s">
+        <v>2</v>
+      </c>
+      <c r="H70">
+        <v>8230000000</v>
+      </c>
+      <c r="I70" t="s">
         <v>21</v>
       </c>
-      <c r="H70">
-        <v>63000000000</v>
-      </c>
       <c r="J70">
-        <v>220</v>
+        <v>780</v>
+      </c>
+      <c r="K70">
+        <v>400</v>
+      </c>
+      <c r="L70">
+        <v>780</v>
       </c>
       <c r="M70">
-        <v>220</v>
-      </c>
-      <c r="N70" t="s">
-        <v>145</v>
+        <v>780</v>
+      </c>
+      <c r="N70" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="O70" t="s">
+        <v>99</v>
+      </c>
+      <c r="P70" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
@@ -23655,18 +23599,18 @@
         <v>21</v>
       </c>
       <c r="B71" s="4">
-        <v>42947</v>
+        <v>42935</v>
       </c>
       <c r="C71" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D71" t="s">
         <v>45</v>
       </c>
       <c r="E71" t="s">
-        <v>165</v>
-      </c>
-      <c r="F71" t="e" vm="38">
+        <v>378</v>
+      </c>
+      <c r="F71" t="e" vm="29">
         <v>#VALUE!</v>
       </c>
       <c r="G71" t="s">
@@ -23675,149 +23619,137 @@
       <c r="H71">
         <v>63000000000</v>
       </c>
+      <c r="I71" t="s">
+        <v>2</v>
+      </c>
       <c r="J71">
-        <v>250</v>
+        <v>780</v>
+      </c>
+      <c r="K71">
+        <v>400</v>
+      </c>
+      <c r="L71">
+        <v>780</v>
       </c>
       <c r="M71">
-        <v>250</v>
+        <v>780</v>
       </c>
       <c r="N71" t="s">
-        <v>166</v>
+        <v>162</v>
+      </c>
+      <c r="O71" t="s">
+        <v>99</v>
+      </c>
+      <c r="P71" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>186</v>
+        <v>21</v>
       </c>
       <c r="B72" s="4">
-        <v>42935</v>
+        <v>42934</v>
       </c>
       <c r="C72" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D72" t="s">
         <v>45</v>
       </c>
       <c r="E72" t="s">
-        <v>378</v>
-      </c>
-      <c r="F72" t="e" vm="29">
+        <v>160</v>
+      </c>
+      <c r="F72" t="e" vm="19">
         <v>#VALUE!</v>
       </c>
       <c r="G72" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="H72">
-        <v>8230000000</v>
-      </c>
-      <c r="I72" t="s">
-        <v>21</v>
+        <v>63000000000</v>
       </c>
       <c r="J72">
-        <v>780</v>
-      </c>
-      <c r="K72">
-        <v>400</v>
-      </c>
-      <c r="L72">
-        <v>780</v>
+        <v>720</v>
       </c>
       <c r="M72">
-        <v>780</v>
+        <v>720</v>
       </c>
       <c r="N72" t="s">
-        <v>162</v>
-      </c>
-      <c r="O72" t="s">
-        <v>99</v>
-      </c>
-      <c r="P72" t="s">
-        <v>188</v>
+        <v>161</v>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>21</v>
+        <v>176</v>
       </c>
       <c r="B73" s="4">
-        <v>42935</v>
+        <v>42907</v>
       </c>
       <c r="C73" t="s">
-        <v>163</v>
+        <v>379</v>
       </c>
       <c r="D73" t="s">
         <v>45</v>
       </c>
-      <c r="E73" t="s">
-        <v>378</v>
-      </c>
-      <c r="F73" t="e" vm="29">
+      <c r="F73" t="e" vm="39">
         <v>#VALUE!</v>
       </c>
       <c r="G73" t="s">
-        <v>21</v>
-      </c>
-      <c r="H73">
-        <v>63000000000</v>
-      </c>
-      <c r="I73" t="s">
-        <v>2</v>
-      </c>
-      <c r="J73">
-        <v>780</v>
+        <v>352</v>
       </c>
       <c r="K73">
-        <v>400</v>
+        <v>341</v>
       </c>
       <c r="L73">
-        <v>780</v>
+        <v>450</v>
       </c>
       <c r="M73">
-        <v>780</v>
+        <v>450</v>
       </c>
       <c r="N73" t="s">
-        <v>162</v>
+        <v>242</v>
       </c>
       <c r="O73" t="s">
-        <v>99</v>
-      </c>
-      <c r="P73" t="s">
-        <v>188</v>
+        <v>243</v>
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>21</v>
+        <v>186</v>
       </c>
       <c r="B74" s="4">
-        <v>42934</v>
+        <v>42818</v>
       </c>
       <c r="C74" t="s">
-        <v>159</v>
+        <v>211</v>
       </c>
       <c r="D74" t="s">
         <v>45</v>
       </c>
       <c r="E74" t="s">
-        <v>160</v>
-      </c>
-      <c r="F74" t="e" vm="19">
+        <v>212</v>
+      </c>
+      <c r="F74" t="e" vm="35">
         <v>#VALUE!</v>
       </c>
       <c r="G74" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="H74">
-        <v>63000000000</v>
-      </c>
-      <c r="J74">
-        <v>720</v>
+        <v>8230000000</v>
+      </c>
+      <c r="K74">
+        <v>330</v>
+      </c>
+      <c r="L74">
+        <v>194</v>
       </c>
       <c r="M74">
-        <v>720</v>
+        <v>194</v>
       </c>
       <c r="N74" t="s">
-        <v>161</v>
+        <v>213</v>
       </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.25">
@@ -23825,34 +23757,31 @@
         <v>176</v>
       </c>
       <c r="B75" s="4">
-        <v>42907</v>
+        <v>42814</v>
       </c>
       <c r="C75" t="s">
-        <v>379</v>
+        <v>245</v>
       </c>
       <c r="D75" t="s">
         <v>45</v>
       </c>
-      <c r="F75" t="e" vm="39">
+      <c r="F75" t="e" vm="24">
         <v>#VALUE!</v>
       </c>
       <c r="G75" t="s">
         <v>352</v>
       </c>
-      <c r="K75">
-        <v>341</v>
+      <c r="I75" t="s">
+        <v>244</v>
       </c>
       <c r="L75">
-        <v>450</v>
+        <v>850</v>
       </c>
       <c r="M75">
-        <v>450</v>
+        <v>850</v>
       </c>
       <c r="N75" t="s">
-        <v>242</v>
-      </c>
-      <c r="O75" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.25">
@@ -23860,18 +23789,15 @@
         <v>186</v>
       </c>
       <c r="B76" s="4">
-        <v>42818</v>
+        <v>42795</v>
       </c>
       <c r="C76" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D76" t="s">
-        <v>45</v>
-      </c>
-      <c r="E76" t="s">
-        <v>212</v>
-      </c>
-      <c r="F76" t="e" vm="35">
+        <v>197</v>
+      </c>
+      <c r="F76" t="e" vm="3">
         <v>#VALUE!</v>
       </c>
       <c r="G76" t="s">
@@ -23880,17 +23806,17 @@
       <c r="H76">
         <v>8230000000</v>
       </c>
-      <c r="K76">
-        <v>330</v>
+      <c r="I76" t="s">
+        <v>380</v>
       </c>
       <c r="L76">
-        <v>194</v>
+        <v>1177</v>
       </c>
       <c r="M76">
-        <v>194</v>
+        <v>1177</v>
       </c>
       <c r="N76" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.25">
@@ -23898,31 +23824,28 @@
         <v>176</v>
       </c>
       <c r="B77" s="4">
-        <v>42814</v>
+        <v>42781</v>
       </c>
       <c r="C77" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D77" t="s">
         <v>45</v>
       </c>
-      <c r="F77" t="e" vm="24">
+      <c r="F77" t="e" vm="20">
         <v>#VALUE!</v>
       </c>
       <c r="G77" t="s">
         <v>352</v>
       </c>
-      <c r="I77" t="s">
-        <v>244</v>
-      </c>
-      <c r="L77">
-        <v>850</v>
+      <c r="J77">
+        <v>350</v>
       </c>
       <c r="M77">
-        <v>850</v>
+        <v>350</v>
       </c>
       <c r="N77" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.25">
@@ -23930,15 +23853,18 @@
         <v>186</v>
       </c>
       <c r="B78" s="4">
-        <v>42795</v>
+        <v>42766</v>
       </c>
       <c r="C78" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="D78" t="s">
-        <v>197</v>
-      </c>
-      <c r="F78" t="e" vm="3">
+        <v>45</v>
+      </c>
+      <c r="E78" t="s">
+        <v>219</v>
+      </c>
+      <c r="F78" t="e" vm="29">
         <v>#VALUE!</v>
       </c>
       <c r="G78" t="s">
@@ -23948,16 +23874,16 @@
         <v>8230000000</v>
       </c>
       <c r="I78" t="s">
-        <v>380</v>
+        <v>220</v>
       </c>
       <c r="L78">
-        <v>1177</v>
+        <v>1760</v>
       </c>
       <c r="M78">
-        <v>1177</v>
+        <v>1760</v>
       </c>
       <c r="N78" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.25">
@@ -23965,183 +23891,189 @@
         <v>176</v>
       </c>
       <c r="B79" s="4">
-        <v>42781</v>
+        <v>42766</v>
       </c>
       <c r="C79" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="D79" t="s">
         <v>45</v>
       </c>
-      <c r="F79" t="e" vm="20">
+      <c r="F79" t="e" vm="8">
         <v>#VALUE!</v>
       </c>
       <c r="G79" t="s">
         <v>352</v>
       </c>
-      <c r="J79">
-        <v>350</v>
+      <c r="L79">
+        <v>980</v>
       </c>
       <c r="M79">
-        <v>350</v>
+        <v>980</v>
       </c>
       <c r="N79" t="s">
-        <v>248</v>
+        <v>252</v>
+      </c>
+      <c r="O79" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="B80" s="4">
-        <v>42766</v>
+        <v>42761</v>
       </c>
       <c r="C80" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="D80" t="s">
         <v>45</v>
       </c>
       <c r="E80" t="s">
-        <v>219</v>
-      </c>
-      <c r="F80" t="e" vm="29">
+        <v>224</v>
+      </c>
+      <c r="F80" t="e" vm="34">
         <v>#VALUE!</v>
       </c>
       <c r="G80" t="s">
+        <v>23</v>
+      </c>
+      <c r="H80">
+        <v>72000000000</v>
+      </c>
+      <c r="I80" t="s">
         <v>2</v>
       </c>
-      <c r="H80">
-        <v>8230000000</v>
-      </c>
-      <c r="I80" t="s">
-        <v>220</v>
+      <c r="K80">
+        <v>550</v>
       </c>
       <c r="L80">
-        <v>1760</v>
+        <v>1200</v>
       </c>
       <c r="M80">
-        <v>1760</v>
+        <v>1200</v>
       </c>
       <c r="N80" t="s">
-        <v>221</v>
+        <v>226</v>
+      </c>
+      <c r="O80" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="B81" s="4">
-        <v>42766</v>
+        <v>42760</v>
       </c>
       <c r="C81" t="s">
-        <v>251</v>
+        <v>222</v>
       </c>
       <c r="D81" t="s">
         <v>45</v>
       </c>
-      <c r="F81" t="e" vm="8">
+      <c r="E81" t="s">
+        <v>224</v>
+      </c>
+      <c r="F81" t="e" vm="34">
         <v>#VALUE!</v>
       </c>
       <c r="G81" t="s">
-        <v>352</v>
+        <v>2</v>
+      </c>
+      <c r="H81">
+        <v>8230000000</v>
+      </c>
+      <c r="I81" t="s">
+        <v>23</v>
+      </c>
+      <c r="K81">
+        <v>550</v>
       </c>
       <c r="L81">
-        <v>980</v>
+        <v>1200</v>
       </c>
       <c r="M81">
-        <v>980</v>
+        <v>1200</v>
       </c>
       <c r="N81" t="s">
-        <v>252</v>
+        <v>223</v>
       </c>
       <c r="O81" t="s">
-        <v>253</v>
+        <v>99</v>
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>175</v>
+        <v>21</v>
       </c>
       <c r="B82" s="4">
-        <v>42761</v>
+        <v>42751</v>
       </c>
       <c r="C82" t="s">
-        <v>225</v>
+        <v>156</v>
       </c>
       <c r="D82" t="s">
         <v>45</v>
       </c>
       <c r="E82" t="s">
-        <v>224</v>
-      </c>
-      <c r="F82" t="e" vm="34">
+        <v>156</v>
+      </c>
+      <c r="F82" t="e" vm="40">
         <v>#VALUE!</v>
       </c>
       <c r="G82" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H82">
-        <v>72000000000</v>
+        <v>63000000000</v>
       </c>
       <c r="I82" t="s">
-        <v>2</v>
-      </c>
-      <c r="K82">
-        <v>550</v>
+        <v>157</v>
+      </c>
+      <c r="J82">
+        <v>1792</v>
       </c>
       <c r="L82">
-        <v>1200</v>
+        <v>1792</v>
       </c>
       <c r="M82">
-        <v>1200</v>
+        <v>1792</v>
       </c>
       <c r="N82" t="s">
-        <v>226</v>
-      </c>
-      <c r="O82" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="B83" s="4">
-        <v>42760</v>
+        <v>42705</v>
       </c>
       <c r="C83" t="s">
-        <v>222</v>
+        <v>254</v>
       </c>
       <c r="D83" t="s">
         <v>45</v>
       </c>
-      <c r="E83" t="s">
-        <v>224</v>
-      </c>
-      <c r="F83" t="e" vm="34">
+      <c r="F83" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
       <c r="G83" t="s">
-        <v>2</v>
-      </c>
-      <c r="H83">
-        <v>8230000000</v>
-      </c>
-      <c r="I83" t="s">
-        <v>23</v>
-      </c>
-      <c r="K83">
-        <v>550</v>
+        <v>352</v>
       </c>
       <c r="L83">
-        <v>1200</v>
+        <v>1080</v>
       </c>
       <c r="M83">
-        <v>1200</v>
+        <v>1080</v>
       </c>
       <c r="N83" t="s">
-        <v>223</v>
+        <v>255</v>
       </c>
       <c r="O83" t="s">
         <v>99</v>
@@ -24149,43 +24081,34 @@
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>21</v>
+        <v>176</v>
       </c>
       <c r="B84" s="4">
-        <v>42751</v>
+        <v>42695</v>
       </c>
       <c r="C84" t="s">
-        <v>156</v>
+        <v>256</v>
       </c>
       <c r="D84" t="s">
         <v>45</v>
       </c>
-      <c r="E84" t="s">
-        <v>156</v>
-      </c>
-      <c r="F84" t="e" vm="40">
+      <c r="F84" t="e" vm="41">
         <v>#VALUE!</v>
       </c>
       <c r="G84" t="s">
-        <v>21</v>
-      </c>
-      <c r="H84">
-        <v>63000000000</v>
-      </c>
-      <c r="I84" t="s">
-        <v>157</v>
-      </c>
-      <c r="J84">
-        <v>1792</v>
+        <v>352</v>
       </c>
       <c r="L84">
-        <v>1792</v>
+        <v>900</v>
       </c>
       <c r="M84">
-        <v>1792</v>
+        <v>900</v>
       </c>
       <c r="N84" t="s">
-        <v>158</v>
+        <v>257</v>
+      </c>
+      <c r="O84" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.25">
@@ -24193,10 +24116,10 @@
         <v>176</v>
       </c>
       <c r="B85" s="4">
-        <v>42705</v>
+        <v>42688</v>
       </c>
       <c r="C85" t="s">
-        <v>254</v>
+        <v>381</v>
       </c>
       <c r="D85" t="s">
         <v>45</v>
@@ -24208,16 +24131,16 @@
         <v>352</v>
       </c>
       <c r="L85">
-        <v>1080</v>
+        <v>1180</v>
       </c>
       <c r="M85">
-        <v>1080</v>
+        <v>1180</v>
       </c>
       <c r="N85" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="O85" t="s">
-        <v>99</v>
+        <v>258</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.25">
@@ -24225,31 +24148,28 @@
         <v>176</v>
       </c>
       <c r="B86" s="4">
-        <v>42695</v>
+        <v>42670</v>
       </c>
       <c r="C86" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="D86" t="s">
         <v>45</v>
       </c>
-      <c r="F86" t="e" vm="41">
+      <c r="F86" t="e" vm="16">
         <v>#VALUE!</v>
       </c>
       <c r="G86" t="s">
         <v>352</v>
       </c>
       <c r="L86">
-        <v>900</v>
+        <v>413</v>
       </c>
       <c r="M86">
-        <v>900</v>
+        <v>413</v>
       </c>
       <c r="N86" t="s">
-        <v>257</v>
-      </c>
-      <c r="O86" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.25">
@@ -24257,31 +24177,28 @@
         <v>176</v>
       </c>
       <c r="B87" s="4">
-        <v>42688</v>
+        <v>42662</v>
       </c>
       <c r="C87" t="s">
-        <v>381</v>
+        <v>262</v>
       </c>
       <c r="D87" t="s">
         <v>45</v>
       </c>
-      <c r="F87" t="e" vm="1">
+      <c r="F87" t="e" vm="41">
         <v>#VALUE!</v>
       </c>
       <c r="G87" t="s">
         <v>352</v>
       </c>
       <c r="L87">
-        <v>1180</v>
+        <v>450</v>
       </c>
       <c r="M87">
-        <v>1180</v>
+        <v>450</v>
       </c>
       <c r="N87" t="s">
-        <v>259</v>
-      </c>
-      <c r="O87" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.25">
@@ -24289,28 +24206,31 @@
         <v>176</v>
       </c>
       <c r="B88" s="4">
-        <v>42670</v>
+        <v>42620</v>
       </c>
       <c r="C88" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="D88" t="s">
         <v>45</v>
       </c>
-      <c r="F88" t="e" vm="16">
+      <c r="F88" t="e" vm="29">
         <v>#VALUE!</v>
       </c>
       <c r="G88" t="s">
         <v>352</v>
       </c>
       <c r="L88">
-        <v>413</v>
+        <v>500</v>
       </c>
       <c r="M88">
-        <v>413</v>
-      </c>
-      <c r="N88" t="s">
-        <v>261</v>
+        <v>500</v>
+      </c>
+      <c r="N88" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="O88" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.25">
@@ -24318,28 +24238,28 @@
         <v>176</v>
       </c>
       <c r="B89" s="4">
-        <v>42662</v>
+        <v>42549</v>
       </c>
       <c r="C89" t="s">
-        <v>262</v>
+        <v>382</v>
       </c>
       <c r="D89" t="s">
-        <v>45</v>
-      </c>
-      <c r="F89" t="e" vm="41">
+        <v>185</v>
+      </c>
+      <c r="F89" t="e" vm="42">
         <v>#VALUE!</v>
       </c>
       <c r="G89" t="s">
         <v>352</v>
       </c>
-      <c r="L89">
-        <v>450</v>
+      <c r="J89">
+        <v>120</v>
       </c>
       <c r="M89">
-        <v>450</v>
+        <v>120</v>
       </c>
       <c r="N89" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
@@ -24347,31 +24267,31 @@
         <v>176</v>
       </c>
       <c r="B90" s="4">
-        <v>42620</v>
+        <v>42487</v>
       </c>
       <c r="C90" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D90" t="s">
         <v>45</v>
       </c>
-      <c r="F90" t="e" vm="29">
+      <c r="F90" t="e" vm="24">
         <v>#VALUE!</v>
       </c>
       <c r="G90" t="s">
         <v>352</v>
       </c>
       <c r="L90">
-        <v>500</v>
+        <v>890</v>
       </c>
       <c r="M90">
-        <v>500</v>
+        <v>890</v>
       </c>
       <c r="N90" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="O90" t="s">
-        <v>99</v>
+        <v>268</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.25">
@@ -24379,28 +24299,31 @@
         <v>176</v>
       </c>
       <c r="B91" s="4">
-        <v>42549</v>
+        <v>42479</v>
       </c>
       <c r="C91" t="s">
-        <v>382</v>
+        <v>270</v>
       </c>
       <c r="D91" t="s">
-        <v>185</v>
-      </c>
-      <c r="F91" t="e" vm="42">
+        <v>45</v>
+      </c>
+      <c r="F91" t="e" vm="16">
         <v>#VALUE!</v>
       </c>
       <c r="G91" t="s">
         <v>352</v>
       </c>
       <c r="J91">
-        <v>120</v>
+        <v>400</v>
       </c>
       <c r="M91">
-        <v>120</v>
+        <v>400</v>
       </c>
       <c r="N91" t="s">
-        <v>269</v>
+        <v>271</v>
+      </c>
+      <c r="O91" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.25">
@@ -24408,31 +24331,31 @@
         <v>176</v>
       </c>
       <c r="B92" s="4">
-        <v>42487</v>
+        <v>42479</v>
       </c>
       <c r="C92" t="s">
-        <v>266</v>
+        <v>383</v>
       </c>
       <c r="D92" t="s">
         <v>45</v>
       </c>
-      <c r="F92" t="e" vm="24">
+      <c r="F92" t="e" vm="8">
         <v>#VALUE!</v>
       </c>
       <c r="G92" t="s">
         <v>352</v>
       </c>
-      <c r="L92">
-        <v>890</v>
+      <c r="J92">
+        <v>925</v>
       </c>
       <c r="M92">
-        <v>890</v>
+        <v>925</v>
       </c>
       <c r="N92" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="O92" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.25">
@@ -24440,20 +24363,23 @@
         <v>176</v>
       </c>
       <c r="B93" s="4">
-        <v>42479</v>
+        <v>42460</v>
       </c>
       <c r="C93" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D93" t="s">
         <v>45</v>
       </c>
-      <c r="F93" t="e" vm="16">
+      <c r="F93" t="e" vm="43">
         <v>#VALUE!</v>
       </c>
       <c r="G93" t="s">
         <v>352</v>
       </c>
+      <c r="I93" t="s">
+        <v>274</v>
+      </c>
       <c r="J93">
         <v>400</v>
       </c>
@@ -24461,10 +24387,10 @@
         <v>400</v>
       </c>
       <c r="N93" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="O93" t="s">
-        <v>253</v>
+        <v>276</v>
       </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.25">
@@ -24472,10 +24398,10 @@
         <v>176</v>
       </c>
       <c r="B94" s="4">
-        <v>42479</v>
+        <v>42443</v>
       </c>
       <c r="C94" t="s">
-        <v>383</v>
+        <v>277</v>
       </c>
       <c r="D94" t="s">
         <v>45</v>
@@ -24487,16 +24413,16 @@
         <v>352</v>
       </c>
       <c r="J94">
-        <v>925</v>
+        <v>475</v>
       </c>
       <c r="M94">
-        <v>925</v>
+        <v>475</v>
       </c>
       <c r="N94" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="O94" t="s">
-        <v>253</v>
+        <v>279</v>
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.25">
@@ -24504,34 +24430,31 @@
         <v>176</v>
       </c>
       <c r="B95" s="4">
-        <v>42460</v>
+        <v>42388</v>
       </c>
       <c r="C95" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="D95" t="s">
         <v>45</v>
       </c>
-      <c r="F95" t="e" vm="43">
+      <c r="F95" t="e" vm="20">
         <v>#VALUE!</v>
       </c>
       <c r="G95" t="s">
         <v>352</v>
       </c>
-      <c r="I95" t="s">
-        <v>274</v>
-      </c>
       <c r="J95">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="M95">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="N95" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="O95" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.25">
@@ -24539,31 +24462,31 @@
         <v>176</v>
       </c>
       <c r="B96" s="4">
-        <v>42443</v>
+        <v>42376</v>
       </c>
       <c r="C96" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="D96" t="s">
         <v>45</v>
       </c>
-      <c r="F96" t="e" vm="8">
+      <c r="F96" t="e" vm="29">
         <v>#VALUE!</v>
       </c>
       <c r="G96" t="s">
         <v>352</v>
       </c>
       <c r="J96">
-        <v>475</v>
+        <v>880</v>
       </c>
       <c r="M96">
-        <v>475</v>
+        <v>880</v>
       </c>
       <c r="N96" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="O96" t="s">
-        <v>279</v>
+        <v>99</v>
       </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.25">
@@ -24571,31 +24494,31 @@
         <v>176</v>
       </c>
       <c r="B97" s="4">
-        <v>42388</v>
+        <v>42347</v>
       </c>
       <c r="C97" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="D97" t="s">
-        <v>45</v>
-      </c>
-      <c r="F97" t="e" vm="20">
+        <v>286</v>
+      </c>
+      <c r="F97" t="e" vm="44">
         <v>#VALUE!</v>
       </c>
       <c r="G97" t="s">
         <v>352</v>
       </c>
       <c r="J97">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="M97">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="N97" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="O97" t="s">
-        <v>282</v>
+        <v>384</v>
       </c>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.25">
@@ -24603,13 +24526,13 @@
         <v>176</v>
       </c>
       <c r="B98" s="4">
-        <v>42376</v>
+        <v>42332</v>
       </c>
       <c r="C98" t="s">
-        <v>283</v>
+        <v>385</v>
       </c>
       <c r="D98" t="s">
-        <v>45</v>
+        <v>286</v>
       </c>
       <c r="F98" t="e" vm="29">
         <v>#VALUE!</v>
@@ -24617,17 +24540,20 @@
       <c r="G98" t="s">
         <v>352</v>
       </c>
+      <c r="I98" t="s">
+        <v>290</v>
+      </c>
       <c r="J98">
-        <v>880</v>
+        <v>1000</v>
       </c>
       <c r="M98">
-        <v>880</v>
+        <v>1000</v>
       </c>
       <c r="N98" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="O98" t="s">
-        <v>99</v>
+        <v>386</v>
       </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.25">
@@ -24635,31 +24561,31 @@
         <v>176</v>
       </c>
       <c r="B99" s="4">
-        <v>42347</v>
+        <v>42327</v>
       </c>
       <c r="C99" t="s">
-        <v>285</v>
+        <v>387</v>
       </c>
       <c r="D99" t="s">
         <v>286</v>
       </c>
-      <c r="F99" t="e" vm="44">
+      <c r="F99" t="e" vm="11">
         <v>#VALUE!</v>
       </c>
       <c r="G99" t="s">
         <v>352</v>
       </c>
       <c r="J99">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="M99">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="N99" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="O99" t="s">
-        <v>384</v>
+        <v>294</v>
       </c>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.25">
@@ -24667,34 +24593,31 @@
         <v>176</v>
       </c>
       <c r="B100" s="4">
-        <v>42332</v>
+        <v>42276</v>
       </c>
       <c r="C100" t="s">
-        <v>385</v>
+        <v>297</v>
       </c>
       <c r="D100" t="s">
-        <v>286</v>
-      </c>
-      <c r="F100" t="e" vm="29">
+        <v>45</v>
+      </c>
+      <c r="F100" t="e" vm="22">
         <v>#VALUE!</v>
       </c>
       <c r="G100" t="s">
         <v>352</v>
       </c>
-      <c r="I100" t="s">
-        <v>290</v>
-      </c>
       <c r="J100">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="M100">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="N100" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="O100" t="s">
-        <v>386</v>
+        <v>296</v>
       </c>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.25">
@@ -24702,13 +24625,13 @@
         <v>176</v>
       </c>
       <c r="B101" s="4">
-        <v>42327</v>
+        <v>42146</v>
       </c>
       <c r="C101" t="s">
-        <v>387</v>
+        <v>299</v>
       </c>
       <c r="D101" t="s">
-        <v>286</v>
+        <v>45</v>
       </c>
       <c r="F101" t="e" vm="11">
         <v>#VALUE!</v>
@@ -24717,80 +24640,80 @@
         <v>352</v>
       </c>
       <c r="J101">
-        <v>1000</v>
+        <v>950</v>
       </c>
       <c r="M101">
-        <v>1000</v>
+        <v>950</v>
       </c>
       <c r="N101" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="O101" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="B102" s="4">
-        <v>42276</v>
-      </c>
-      <c r="C102" t="s">
-        <v>297</v>
-      </c>
-      <c r="D102" t="s">
-        <v>45</v>
-      </c>
-      <c r="F102" t="e" vm="22">
+      <c r="B102" s="16">
+        <v>42072</v>
+      </c>
+      <c r="C102" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="D102" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="F102" s="15" t="e" vm="45">
         <v>#VALUE!</v>
       </c>
-      <c r="G102" t="s">
+      <c r="G102" s="15" t="s">
         <v>352</v>
       </c>
-      <c r="J102">
-        <v>1100</v>
-      </c>
-      <c r="M102">
-        <v>1100</v>
-      </c>
-      <c r="N102" t="s">
-        <v>295</v>
-      </c>
-      <c r="O102" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+      <c r="J102" s="15">
+        <v>1320</v>
+      </c>
+      <c r="M102" s="15">
+        <v>1320</v>
+      </c>
+      <c r="N102" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="O102" s="15" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="B103" s="4">
-        <v>42146</v>
-      </c>
-      <c r="C103" t="s">
-        <v>299</v>
-      </c>
-      <c r="D103" t="s">
-        <v>45</v>
-      </c>
-      <c r="F103" t="e" vm="11">
+      <c r="B103" s="16">
+        <v>42067</v>
+      </c>
+      <c r="C103" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="D103" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="F103" s="15" t="e" vm="45">
         <v>#VALUE!</v>
       </c>
-      <c r="G103" t="s">
+      <c r="G103" s="15" t="s">
         <v>352</v>
       </c>
-      <c r="J103">
-        <v>950</v>
-      </c>
-      <c r="M103">
-        <v>950</v>
-      </c>
-      <c r="N103" t="s">
-        <v>301</v>
-      </c>
-      <c r="O103" t="s">
-        <v>388</v>
+      <c r="J103" s="15">
+        <v>1320</v>
+      </c>
+      <c r="M103" s="15">
+        <v>1320</v>
+      </c>
+      <c r="N103" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="O103" s="15" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.25">
@@ -24798,31 +24721,31 @@
         <v>176</v>
       </c>
       <c r="B104" s="4">
-        <v>42072</v>
+        <v>41981</v>
       </c>
       <c r="C104" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="D104" t="s">
-        <v>286</v>
-      </c>
-      <c r="F104" t="e" vm="45">
+        <v>45</v>
+      </c>
+      <c r="F104" t="e" vm="11">
         <v>#VALUE!</v>
       </c>
       <c r="G104" t="s">
         <v>352</v>
       </c>
       <c r="J104">
-        <v>1320</v>
+        <v>470</v>
       </c>
       <c r="M104">
-        <v>1320</v>
+        <v>470</v>
       </c>
       <c r="N104" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="O104" t="s">
-        <v>304</v>
+        <v>282</v>
       </c>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.25">
@@ -24830,31 +24753,31 @@
         <v>176</v>
       </c>
       <c r="B105" s="4">
-        <v>42067</v>
+        <v>41942</v>
       </c>
       <c r="C105" t="s">
-        <v>307</v>
+        <v>389</v>
       </c>
       <c r="D105" t="s">
         <v>286</v>
       </c>
-      <c r="F105" t="e" vm="45">
+      <c r="F105" t="e" vm="27">
         <v>#VALUE!</v>
       </c>
       <c r="G105" t="s">
         <v>352</v>
       </c>
       <c r="J105">
-        <v>1320</v>
+        <v>300</v>
       </c>
       <c r="M105">
-        <v>1320</v>
+        <v>300</v>
       </c>
       <c r="N105" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="O105" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.25">
@@ -24862,31 +24785,31 @@
         <v>176</v>
       </c>
       <c r="B106" s="4">
-        <v>41981</v>
+        <v>41914</v>
       </c>
       <c r="C106" t="s">
-        <v>310</v>
+        <v>392</v>
       </c>
       <c r="D106" t="s">
-        <v>45</v>
-      </c>
-      <c r="F106" t="e" vm="11">
+        <v>286</v>
+      </c>
+      <c r="F106" t="e" vm="46">
         <v>#VALUE!</v>
       </c>
       <c r="G106" t="s">
         <v>352</v>
       </c>
-      <c r="J106">
-        <v>470</v>
+      <c r="L106">
+        <v>1386</v>
       </c>
       <c r="M106">
-        <v>470</v>
+        <v>1386</v>
       </c>
       <c r="N106" t="s">
-        <v>311</v>
+        <v>333</v>
       </c>
       <c r="O106" t="s">
-        <v>282</v>
+        <v>334</v>
       </c>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.25">
@@ -24894,31 +24817,34 @@
         <v>176</v>
       </c>
       <c r="B107" s="4">
-        <v>41942</v>
+        <v>41837</v>
       </c>
       <c r="C107" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="D107" t="s">
         <v>286</v>
       </c>
-      <c r="F107" t="e" vm="27">
+      <c r="F107" t="e" vm="47">
         <v>#VALUE!</v>
       </c>
       <c r="G107" t="s">
         <v>352</v>
       </c>
-      <c r="J107">
-        <v>300</v>
+      <c r="K107">
+        <v>1100</v>
+      </c>
+      <c r="L107">
+        <v>450</v>
       </c>
       <c r="M107">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="N107" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="O107" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.25">
@@ -24926,31 +24852,31 @@
         <v>176</v>
       </c>
       <c r="B108" s="4">
-        <v>41914</v>
+        <v>41834</v>
       </c>
       <c r="C108" t="s">
-        <v>392</v>
+        <v>323</v>
       </c>
       <c r="D108" t="s">
-        <v>286</v>
-      </c>
-      <c r="F108" t="e" vm="46">
+        <v>45</v>
+      </c>
+      <c r="F108" t="e" vm="16">
         <v>#VALUE!</v>
       </c>
       <c r="G108" t="s">
         <v>352</v>
       </c>
       <c r="L108">
-        <v>1386</v>
+        <v>410</v>
       </c>
       <c r="M108">
-        <v>1386</v>
+        <v>410</v>
       </c>
       <c r="N108" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="O108" t="s">
-        <v>334</v>
+        <v>390</v>
       </c>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.25">
@@ -24958,34 +24884,31 @@
         <v>176</v>
       </c>
       <c r="B109" s="4">
-        <v>41837</v>
+        <v>41800</v>
       </c>
       <c r="C109" t="s">
-        <v>391</v>
+        <v>325</v>
       </c>
       <c r="D109" t="s">
-        <v>286</v>
-      </c>
-      <c r="F109" t="e" vm="47">
+        <v>45</v>
+      </c>
+      <c r="F109" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
       <c r="G109" t="s">
         <v>352</v>
       </c>
-      <c r="K109">
-        <v>1100</v>
-      </c>
       <c r="L109">
-        <v>450</v>
+        <v>427</v>
       </c>
       <c r="M109">
-        <v>450</v>
+        <v>427</v>
       </c>
       <c r="N109" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="O109" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.25">
@@ -24993,31 +24916,28 @@
         <v>176</v>
       </c>
       <c r="B110" s="4">
-        <v>41834</v>
+        <v>41799</v>
       </c>
       <c r="C110" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="D110" t="s">
         <v>45</v>
       </c>
-      <c r="F110" t="e" vm="16">
+      <c r="F110" t="e" vm="11">
         <v>#VALUE!</v>
       </c>
       <c r="G110" t="s">
         <v>352</v>
       </c>
-      <c r="L110">
-        <v>410</v>
-      </c>
       <c r="M110">
-        <v>410</v>
+        <v>500</v>
       </c>
       <c r="N110" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="O110" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.25">
@@ -25025,31 +24945,31 @@
         <v>176</v>
       </c>
       <c r="B111" s="4">
-        <v>41800</v>
+        <v>41792</v>
       </c>
       <c r="C111" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="D111" t="s">
         <v>45</v>
       </c>
-      <c r="F111" t="e" vm="1">
+      <c r="F111" t="e" vm="44">
         <v>#VALUE!</v>
       </c>
       <c r="G111" t="s">
         <v>352</v>
       </c>
       <c r="L111">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="M111">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="N111" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="O111" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.25">
@@ -25057,97 +24977,39 @@
         <v>176</v>
       </c>
       <c r="B112" s="4">
-        <v>41799</v>
+        <v>41789</v>
       </c>
       <c r="C112" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="D112" t="s">
         <v>45</v>
       </c>
-      <c r="F112" t="e" vm="11">
+      <c r="F112" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
       <c r="G112" t="s">
         <v>352</v>
       </c>
+      <c r="J112">
+        <v>480</v>
+      </c>
       <c r="M112">
-        <v>500</v>
+        <v>480</v>
       </c>
       <c r="N112" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="O112" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>176</v>
-      </c>
-      <c r="B113" s="4">
-        <v>41792</v>
-      </c>
-      <c r="C113" t="s">
-        <v>330</v>
-      </c>
-      <c r="D113" t="s">
-        <v>45</v>
-      </c>
-      <c r="F113" t="e" vm="44">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G113" t="s">
-        <v>352</v>
-      </c>
-      <c r="L113">
-        <v>420</v>
-      </c>
-      <c r="M113">
-        <v>420</v>
-      </c>
-      <c r="N113" t="s">
-        <v>331</v>
-      </c>
-      <c r="O113" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>176</v>
-      </c>
-      <c r="B114" s="4">
-        <v>41789</v>
-      </c>
-      <c r="C114" t="s">
-        <v>317</v>
-      </c>
-      <c r="D114" t="s">
-        <v>45</v>
-      </c>
-      <c r="F114" t="e" vm="1">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G114" t="s">
-        <v>352</v>
-      </c>
-      <c r="J114">
-        <v>480</v>
-      </c>
-      <c r="M114">
-        <v>480</v>
-      </c>
-      <c r="N114" t="s">
-        <v>318</v>
-      </c>
-      <c r="O114" t="s">
         <v>327</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="N88" r:id="rId1" xr:uid="{1F545B67-2178-4DDB-A093-13FF9CABA7F6}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>
 </worksheet>
 </file>
 
